--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>machine learning</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>machine learning - ค้นหาด้วย Google</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19-08-2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Supphalak</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -476,12 +476,76 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18-08-2024</t>
+          <t>19-08-2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Supphalak</t>
+          <t>Supphalak Maneepanpanit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>selenium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>selenium - ค้นหาด้วย Google</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19-08-2024</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Supphalak Maneepanpanit</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>python - ค้นหาด้วย Google</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19-08-2024</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Supphalak Maneepanpanit</t>
         </is>
       </c>
     </row>
@@ -513,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Supphalak</t>
+          <t>Supphalak Maneepanpanit</t>
         </is>
       </c>
     </row>
